--- a/Data/Student_Emails_File_A.xlsx
+++ b/Data/Student_Emails_File_A.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,11 +468,6 @@
           <t>Gender</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -489,15 +484,14 @@
       <c r="D2" s="2" t="n">
         <v>36694</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>apaul@gmail.com</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>apaul@gmail.com</t>
         </is>
       </c>
     </row>
@@ -516,15 +510,14 @@
       <c r="D3" s="2" t="n">
         <v>37209</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>aanyango@gmail.com</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>aanyango@gmail.com</t>
         </is>
       </c>
     </row>
@@ -543,15 +536,14 @@
       <c r="D4" s="2" t="n">
         <v>37854</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>aocomil@gmail.com</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>aocomil@gmail.com</t>
         </is>
       </c>
     </row>
@@ -570,15 +562,14 @@
       <c r="D5" s="2" t="n">
         <v>37920</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>aneema@gmail.com</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>aneema@gmail.com</t>
         </is>
       </c>
     </row>
@@ -597,15 +588,14 @@
       <c r="D6" s="2" t="n">
         <v>37332</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>aikobwa@gmail.com</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>aikobwa@gmail.com</t>
         </is>
       </c>
     </row>
@@ -624,15 +614,14 @@
       <c r="D7" s="2" t="n">
         <v>37311</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>bkasuni@gmail.com</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>bkasuni@gmail.com</t>
         </is>
       </c>
     </row>
@@ -651,15 +640,14 @@
       <c r="D8" s="2" t="n">
         <v>36776</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>dgeleta@gmail.com</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>dgeleta@gmail.com</t>
         </is>
       </c>
     </row>
@@ -678,15 +666,14 @@
       <c r="D9" s="2" t="n">
         <v>37050</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>elokwei@gmail.com</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>elokwei@gmail.com</t>
         </is>
       </c>
     </row>
@@ -705,15 +692,14 @@
       <c r="D10" s="2" t="n">
         <v>36919</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>gotieno@gmail.com</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>gotieno@gmail.com</t>
         </is>
       </c>
     </row>
@@ -732,15 +718,14 @@
       <c r="D11" s="2" t="n">
         <v>36628</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>gthigiti@gmail.com</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>gthigiti@gmail.com</t>
         </is>
       </c>
     </row>
@@ -759,15 +744,14 @@
       <c r="D12" s="2" t="n">
         <v>37785</v>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>hali@gmail.com</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>hali@gmail.com</t>
         </is>
       </c>
     </row>
@@ -786,15 +770,14 @@
       <c r="D13" s="2" t="n">
         <v>36789</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>habduhakim@gmail.com</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>habduhakim@gmail.com</t>
         </is>
       </c>
     </row>
@@ -813,15 +796,14 @@
       <c r="D14" s="2" t="n">
         <v>36624</v>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>iali@gmail.com</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>iali@gmail.com</t>
         </is>
       </c>
     </row>
@@ -840,15 +822,14 @@
       <c r="D15" s="2" t="n">
         <v>37008</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>jadebayo@gmail.com</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>jadebayo@gmail.com</t>
         </is>
       </c>
     </row>
@@ -867,15 +848,14 @@
       <c r="D16" s="2" t="n">
         <v>37223</v>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>kmumbi@gmail.com</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>kmumbi@gmail.com</t>
         </is>
       </c>
     </row>
@@ -894,15 +874,14 @@
       <c r="D17" s="2" t="n">
         <v>36576</v>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>kwanjiru@gmail.com</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>kwanjiru@gmail.com</t>
         </is>
       </c>
     </row>
@@ -921,15 +900,14 @@
       <c r="D18" s="2" t="n">
         <v>37219</v>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>kmuthoni@gmail.com</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>kmuthoni@gmail.com</t>
         </is>
       </c>
     </row>
@@ -948,15 +926,14 @@
       <c r="D19" s="2" t="n">
         <v>36686</v>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>kndungu@gmail.com</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>kndungu@gmail.com</t>
         </is>
       </c>
     </row>
@@ -975,15 +952,14 @@
       <c r="D20" s="2" t="n">
         <v>37543</v>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>kkendi@gmail.com</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>kkendi@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1002,15 +978,14 @@
       <c r="D21" s="2" t="n">
         <v>37515</v>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>kkibet@gmail.com</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>kkibet@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1029,15 +1004,14 @@
       <c r="D22" s="2" t="n">
         <v>37922</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>kmfana@gmail.com</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>kmfana@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1056,15 +1030,14 @@
       <c r="D23" s="2" t="n">
         <v>36951</v>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>kmuteithia@gmail.com</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>kmuteithia@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1083,15 +1056,14 @@
       <c r="D24" s="2" t="n">
         <v>36801</v>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>kmuriithi@gmail.com</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>kmuriithi@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1110,15 +1082,14 @@
       <c r="D25" s="2" t="n">
         <v>37555</v>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>kkimutai@gmail.com</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>kkimutai@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1137,15 +1108,14 @@
       <c r="D26" s="2" t="n">
         <v>37372</v>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>kwafula@gmail.com</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>kwafula@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1164,15 +1134,14 @@
       <c r="D27" s="2" t="n">
         <v>36822</v>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>mkipngeno@gmail.com</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>mkipngeno@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1191,15 +1160,14 @@
       <c r="D28" s="2" t="n">
         <v>37443</v>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>mdavid@gmail.com</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>mdavid@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1218,15 +1186,14 @@
       <c r="D29" s="2" t="n">
         <v>37715</v>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>mmahamud@gmail.com</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>mmahamud@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1245,15 +1212,14 @@
       <c r="D30" s="2" t="n">
         <v>36935</v>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>mnyamongo@gmail.com</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>mnyamongo@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1272,15 +1238,14 @@
       <c r="D31" s="2" t="n">
         <v>36626</v>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>mkarani@gmail.com</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>mkarani@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1299,15 +1264,14 @@
       <c r="D32" s="2" t="n">
         <v>36795</v>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>mmwaura@gmail.com</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>mmwaura@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1326,15 +1290,14 @@
       <c r="D33" s="2" t="n">
         <v>37487</v>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>mwaithira@gmail.com</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>mwaithira@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1353,15 +1316,14 @@
       <c r="D34" s="2" t="n">
         <v>36643</v>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>mkanini@gmail.com</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>mkanini@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1380,15 +1342,14 @@
       <c r="D35" s="2" t="n">
         <v>37253</v>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>mgichuhi@gmail.com</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>mgichuhi@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1407,15 +1368,14 @@
       <c r="D36" s="2" t="n">
         <v>37424</v>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>mmbete@gmail.com</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>mmbete@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1434,15 +1394,14 @@
       <c r="D37" s="2" t="n">
         <v>37915</v>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>mkaranja@gmail.com</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>mkaranja@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1461,15 +1420,14 @@
       <c r="D38" s="2" t="n">
         <v>37813</v>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>mkiamba@gmail.com</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>mkiamba@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1488,15 +1446,14 @@
       <c r="D39" s="2" t="n">
         <v>36746</v>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>mkamanthe@gmail.com</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>mkamanthe@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1515,15 +1472,14 @@
       <c r="D40" s="2" t="n">
         <v>36576</v>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>mjosiah@gmail.com</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>mjosiah@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1542,15 +1498,14 @@
       <c r="D41" s="2" t="n">
         <v>37099</v>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>nkasaine@gmail.com</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>nkasaine@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1569,15 +1524,14 @@
       <c r="D42" s="2" t="n">
         <v>37588</v>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>nmonicah@gmail.com</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>nmonicah@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1596,15 +1550,14 @@
       <c r="D43" s="2" t="n">
         <v>37458</v>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>nnyambura@gmail.com</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>nnyambura@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1623,15 +1576,14 @@
       <c r="D44" s="2" t="n">
         <v>37895</v>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>nwangari@gmail.com</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>nwangari@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1650,15 +1602,14 @@
       <c r="D45" s="2" t="n">
         <v>36914</v>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>nmutuge@gmail.com</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>nmutuge@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1677,15 +1628,14 @@
       <c r="D46" s="2" t="n">
         <v>37612</v>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>nkipkurui@gmail.com</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>nkipkurui@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1704,15 +1654,14 @@
       <c r="D47" s="2" t="n">
         <v>37844</v>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>nmacharia@gmail.com</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>nmacharia@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1731,15 +1680,14 @@
       <c r="D48" s="2" t="n">
         <v>36714</v>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>nnjoki@gmail.com</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>nnjoki@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1758,15 +1706,14 @@
       <c r="D49" s="2" t="n">
         <v>37726</v>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>nkiarie@gmail.com</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>nkiarie@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1785,15 +1732,14 @@
       <c r="D50" s="2" t="n">
         <v>37494</v>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>nerica@gmail.com</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>nerica@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1812,15 +1758,14 @@
       <c r="D51" s="2" t="n">
         <v>37534</v>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>nmutete@gmail.com</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>nmutete@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1839,15 +1784,14 @@
       <c r="D52" s="2" t="n">
         <v>36618</v>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ojona@gmail.com</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>ojona@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1866,15 +1810,14 @@
       <c r="D53" s="2" t="n">
         <v>37370</v>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>oanyango@gmail.com</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>oanyango@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1893,15 +1836,14 @@
       <c r="D54" s="2" t="n">
         <v>37228</v>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ofaraja@gmail.com</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>ofaraja@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1920,15 +1862,14 @@
       <c r="D55" s="2" t="n">
         <v>37526</v>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>omagare@gmail.com</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>omagare@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1947,15 +1888,14 @@
       <c r="D56" s="2" t="n">
         <v>36541</v>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ongwono@gmail.com</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>ongwono@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1974,15 +1914,14 @@
       <c r="D57" s="2" t="n">
         <v>36783</v>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>oowens@gmail.com</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>oowens@gmail.com</t>
         </is>
       </c>
     </row>
@@ -2001,15 +1940,14 @@
       <c r="D58" s="2" t="n">
         <v>37797</v>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>phirji@gmail.com</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>phirji@gmail.com</t>
         </is>
       </c>
     </row>
@@ -2028,15 +1966,14 @@
       <c r="D59" s="2" t="n">
         <v>37409</v>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>tmartin@gmail.com</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>tmartin@gmail.com</t>
         </is>
       </c>
     </row>
@@ -2055,15 +1992,14 @@
       <c r="D60" s="2" t="n">
         <v>36928</v>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>tkipchirchir@gmail.com</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>tkipchirchir@gmail.com</t>
         </is>
       </c>
     </row>
@@ -2082,15 +2018,14 @@
       <c r="D61" s="2" t="n">
         <v>37110</v>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>wmuthoni@gmail.com</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>wmuthoni@gmail.com</t>
         </is>
       </c>
     </row>
@@ -2109,15 +2044,14 @@
       <c r="D62" s="2" t="n">
         <v>36536</v>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>wnjeri@gmail.com</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>wnjeri@gmail.com</t>
         </is>
       </c>
     </row>
@@ -2136,15 +2070,14 @@
       <c r="D63" s="2" t="n">
         <v>37001</v>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>wmbugua@gmail.com</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>wmbugua@gmail.com</t>
         </is>
       </c>
     </row>
@@ -2163,15 +2096,14 @@
       <c r="D64" s="2" t="n">
         <v>37396</v>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>wngendo@gmail.com</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>wngendo@gmail.com</t>
         </is>
       </c>
     </row>
@@ -2190,15 +2122,14 @@
       <c r="D65" s="2" t="n">
         <v>37365</v>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>wkariuki@gmail.com</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>wkariuki@gmail.com</t>
         </is>
       </c>
     </row>
